--- a/CheatSheetMethods_nosolution_v4.xlsx
+++ b/CheatSheetMethods_nosolution_v4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF26363-BDD0-49E0-96E4-FBDC43D47AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C14FE-A99D-4735-9C62-24A547B33E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t xml:space="preserve">Linear Regression </t>
   </si>
@@ -64,9 +64,6 @@
     <t>Method Name</t>
   </si>
   <si>
-    <t>Created to deal with multicolinearity</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
@@ -89,45 +86,6 @@
   </si>
   <si>
     <t>Boosting</t>
-  </si>
-  <si>
-    <t>Created to deal with causality</t>
-  </si>
-  <si>
-    <t>Autocorrelation required</t>
-  </si>
-  <si>
-    <t>Created to deal with same observation repeated measurement with same time interval</t>
-  </si>
-  <si>
-    <t>Created to deal with same observation repeated measurement with any time interval</t>
-  </si>
-  <si>
-    <t>No autocorrelation required</t>
-  </si>
-  <si>
-    <t>No Linear relationship between the independent and dependent variables required</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Created to use most important data points and inderectly eliminates multidimensional outliers</t>
-  </si>
-  <si>
-    <t>No distribution required</t>
-  </si>
-  <si>
-    <t>Not required</t>
-  </si>
-  <si>
-    <t>Immune</t>
-  </si>
-  <si>
-    <t>Can deal with that</t>
-  </si>
-  <si>
-    <t>This is the problem that Boosting solves</t>
   </si>
 </sst>
 </file>
@@ -163,12 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,9 +233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,26 +268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,26 +303,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,19 +481,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="23.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="23.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -596,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -626,163 +549,81 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="5:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="5:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="5:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="5:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="5:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="5:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="5:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="E14" s="2" t="s">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="5:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="E15" s="2" t="s">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E16" s="2" t="s">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="5:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="E17" s="2" t="s">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -801,7 +642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -813,7 +654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
